--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1127449.223939915</v>
+        <v>1120101.587449967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284524</v>
+        <v>9225685.419344155</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2413383.702166154</v>
+        <v>2413383.702166155</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10661324.58824435</v>
+        <v>10603109.24815811</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>186.8428607200459</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.97516701831656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>252.7920924939197</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.77609278441097</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.9369279848389</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>92.03069542442317</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.7922296027660104</v>
       </c>
       <c r="C8" t="n">
-        <v>195.1846474404921</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>10.27528977134595</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>123.0853682893178</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>362.5726364766796</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.790379538870111</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285971</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>224.1347930294068</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342292</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>37.38100496017461</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.86296951216475</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>36.89863216765588</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>77.31354443380542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>112.7956618595011</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V22" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>11.59100715283902</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.23490948285954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.51539214791879</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>35.19569619650047</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>71.67037196991714</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>76.07834618145947</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>74.75769145492406</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8708392937382</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>109.2433493765427</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.380068175848154</v>
+        <v>185.2473541822707</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,7 +3481,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>39.56170606870321</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>31.12927037859167</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>406.8708392937382</v>
       </c>
       <c r="H41" t="n">
-        <v>54.2082326110422</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>52.23490948285976</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>28.92900240760797</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4150,10 +4150,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>135.8241034250917</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.181703431127</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="E2" t="n">
-        <v>807.3934508328825</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="F2" t="n">
-        <v>396.407546043275</v>
+        <v>814.1029282705687</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>396.1391201687555</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047574</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1678.198452807675</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1845.464683965246</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2392.625888732324</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.181059447974</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.41240417786</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.94664591678</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>960.9173648712009</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>791.981181943294</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>641.8645425309583</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>493.9514489485651</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4726,49 +4726,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>477.5636529541582</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>477.5636529541582</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>960.9173648712009</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>960.9173648712009</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>960.9173648712009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.102510901366</v>
+        <v>1989.559504814594</v>
       </c>
       <c r="C8" t="n">
-        <v>1659.946301365515</v>
+        <v>1989.559504814594</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758765</v>
+        <v>1631.293806207844</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>1245.505553609599</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>834.519648819992</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>418.9265767457143</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2321.422624080151</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901366</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.102510901366</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.102510901366</v>
+        <v>1990.35973673658</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L9" t="n">
-        <v>975.0527656697138</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.3161445508897</v>
+        <v>698.2012019308523</v>
       </c>
       <c r="C10" t="n">
-        <v>501.3161445508897</v>
+        <v>529.2650190029455</v>
       </c>
       <c r="D10" t="n">
-        <v>501.3161445508897</v>
+        <v>379.1483795906097</v>
       </c>
       <c r="E10" t="n">
-        <v>501.3161445508897</v>
+        <v>379.1483795906097</v>
       </c>
       <c r="F10" t="n">
-        <v>501.3161445508897</v>
+        <v>232.2584320926993</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>64.32206239748157</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>64.32206239748157</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>929.5490084420144</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>722.1087236944198</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T10" t="n">
-        <v>722.1087236944198</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U10" t="n">
-        <v>722.1087236944198</v>
+        <v>879.8496667610921</v>
       </c>
       <c r="V10" t="n">
-        <v>722.1087236944198</v>
+        <v>879.8496667610921</v>
       </c>
       <c r="W10" t="n">
-        <v>722.1087236944198</v>
+        <v>879.8496667610921</v>
       </c>
       <c r="X10" t="n">
-        <v>722.1087236944198</v>
+        <v>879.8496667610921</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.3161445508897</v>
+        <v>879.8496667610921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.511388127729</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.548871187317</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D11" t="n">
-        <v>905.2831725805665</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823222</v>
+        <v>1183.313506713635</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>772.3276019240279</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3319.756953388091</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3113.779205772313</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3113.779205772313</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2782.716318428742</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W11" t="n">
-        <v>2782.716318428742</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X11" t="n">
-        <v>2409.250560167662</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.11122819185</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C14" t="n">
-        <v>1844.338003964587</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.077176004521</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028709</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5458,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1969.42314369238</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C17" t="n">
-        <v>1969.42314369238</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1611.15744508563</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1225.369192487386</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>814.3832876977781</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>399.3108375427746</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>101.7272371515418</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W17" t="n">
-        <v>3119.628073993394</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X17" t="n">
-        <v>2746.162315732314</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y17" t="n">
-        <v>2356.022983756502</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1861.970701620181</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C19" t="n">
-        <v>1693.034518692274</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D19" t="n">
-        <v>1542.917879279938</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E19" t="n">
-        <v>1464.823389952862</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F19" t="n">
-        <v>1464.823389952862</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G19" t="n">
-        <v>1464.823389952862</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H19" t="n">
-        <v>1464.823389952862</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>3036.502954734815</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>2781.818466528928</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>2492.401296491968</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>2264.41174559395</v>
+        <v>980.1550109919946</v>
       </c>
       <c r="Y19" t="n">
-        <v>2043.61916645042</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="20">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839441</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3160.812154727208</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C25" t="n">
-        <v>3160.812154727208</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="D25" t="n">
-        <v>3160.812154727208</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>3160.812154727208</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>3160.812154727208</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X25" t="n">
-        <v>3213.574689558379</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.812154727208</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,16 +6321,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3236.322113103653</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="C28" t="n">
-        <v>3067.385930175747</v>
+        <v>726.2132071615756</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763411</v>
+        <v>576.0965677492399</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763411</v>
+        <v>428.1834741668467</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4699.957233092645</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4410.854366218288</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>4156.169878012402</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>3866.752707975441</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>3638.763157077423</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>3417.970577933893</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,22 +6461,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3175.513123659585</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.811212990069</v>
+        <v>3121.756681970611</v>
       </c>
       <c r="C31" t="n">
-        <v>612.8750300621621</v>
+        <v>2952.820499042704</v>
       </c>
       <c r="D31" t="n">
-        <v>462.7583906498263</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E31" t="n">
-        <v>314.8452970674332</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F31" t="n">
-        <v>167.9553495695228</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>3531.394697698868</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963839</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203087</v>
+        <v>3303.405146800851</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.0738540998329</v>
+        <v>1050.619465284815</v>
       </c>
       <c r="C34" t="n">
-        <v>171.0738540998329</v>
+        <v>881.6832823569077</v>
       </c>
       <c r="D34" t="n">
-        <v>171.0738540998329</v>
+        <v>731.566642944572</v>
       </c>
       <c r="E34" t="n">
-        <v>171.0738540998329</v>
+        <v>583.6535493621789</v>
       </c>
       <c r="F34" t="n">
-        <v>171.0738540998329</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>171.0738540998329</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>171.0738540998329</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6889,19 +6889,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>1232.267930115054</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.558518914073</v>
+        <v>2361.647222078357</v>
       </c>
       <c r="C35" t="n">
-        <v>1946.596001973661</v>
+        <v>1992.684705137945</v>
       </c>
       <c r="D35" t="n">
-        <v>1588.330303366911</v>
+        <v>1634.419006531195</v>
       </c>
       <c r="E35" t="n">
-        <v>1202.542050768667</v>
+        <v>1248.63075393295</v>
       </c>
       <c r="F35" t="n">
-        <v>791.556145979059</v>
+        <v>837.644849143343</v>
       </c>
       <c r="G35" t="n">
-        <v>380.5755002278082</v>
+        <v>422.5723989883395</v>
       </c>
       <c r="H35" t="n">
-        <v>82.99189983657543</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I35" t="n">
         <v>82.99189983657543</v>
@@ -6944,7 +6944,7 @@
         <v>1056.724617733856</v>
       </c>
       <c r="M35" t="n">
-        <v>2035.274920563685</v>
+        <v>1964.792454053125</v>
       </c>
       <c r="N35" t="n">
         <v>2944.544726279772</v>
@@ -6962,25 +6962,25 @@
         <v>4149.594991828772</v>
       </c>
       <c r="S35" t="n">
-        <v>4149.594991828772</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T35" t="n">
-        <v>4149.594991828772</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U35" t="n">
-        <v>4149.594991828772</v>
+        <v>3579.796099013925</v>
       </c>
       <c r="V35" t="n">
-        <v>3818.532104485201</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="W35" t="n">
-        <v>3465.763449215086</v>
+        <v>3138.386394118291</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.297690954007</v>
+        <v>3138.386394118291</v>
       </c>
       <c r="Y35" t="n">
-        <v>2702.158358978195</v>
+        <v>2748.247062142479</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>958.0236378855005</v>
+        <v>2526.085303776539</v>
       </c>
       <c r="C36" t="n">
-        <v>783.5706086043735</v>
+        <v>2351.632274495412</v>
       </c>
       <c r="D36" t="n">
-        <v>634.6361989431223</v>
+        <v>2202.697864834161</v>
       </c>
       <c r="E36" t="n">
-        <v>475.3987439376668</v>
+        <v>2043.460409828705</v>
       </c>
       <c r="F36" t="n">
-        <v>328.8641859645518</v>
+        <v>1896.92585185559</v>
       </c>
       <c r="G36" t="n">
-        <v>192.5010857971699</v>
+        <v>1760.562751688208</v>
       </c>
       <c r="H36" t="n">
-        <v>101.9991914350375</v>
+        <v>1670.060857326076</v>
       </c>
       <c r="I36" t="n">
-        <v>82.99189983657543</v>
+        <v>1651.053565727614</v>
       </c>
       <c r="J36" t="n">
-        <v>176.6691693271928</v>
+        <v>1744.730835218231</v>
       </c>
       <c r="K36" t="n">
-        <v>414.9333683075399</v>
+        <v>1982.995034198578</v>
       </c>
       <c r="L36" t="n">
-        <v>781.6315286202052</v>
+        <v>2349.693194511244</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.907853842521</v>
+        <v>2796.96951973356</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.430897396976</v>
+        <v>3270.492563288014</v>
       </c>
       <c r="O36" t="n">
-        <v>2113.39217681503</v>
+        <v>3681.453842706069</v>
       </c>
       <c r="P36" t="n">
-        <v>2423.891768291133</v>
+        <v>3991.953434182172</v>
       </c>
       <c r="Q36" t="n">
-        <v>2581.533325937733</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="R36" t="n">
-        <v>2581.388972530248</v>
+        <v>4149.450638421286</v>
       </c>
       <c r="S36" t="n">
-        <v>2451.951086023728</v>
+        <v>4020.012751914767</v>
       </c>
       <c r="T36" t="n">
-        <v>2259.308085701584</v>
+        <v>3827.369751592622</v>
       </c>
       <c r="U36" t="n">
-        <v>2031.240238835999</v>
+        <v>3599.301904727038</v>
       </c>
       <c r="V36" t="n">
-        <v>1796.088130604257</v>
+        <v>3364.149796495295</v>
       </c>
       <c r="W36" t="n">
-        <v>1541.850773876055</v>
+        <v>3109.912439767093</v>
       </c>
       <c r="X36" t="n">
-        <v>1333.999273670522</v>
+        <v>2902.060939561561</v>
       </c>
       <c r="Y36" t="n">
-        <v>1126.238974905569</v>
+        <v>2694.300640796607</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>251.9280827644823</v>
+        <v>546.7311238447858</v>
       </c>
       <c r="C37" t="n">
-        <v>82.99189983657543</v>
+        <v>377.7949409168789</v>
       </c>
       <c r="D37" t="n">
-        <v>82.99189983657543</v>
+        <v>377.7949409168789</v>
       </c>
       <c r="E37" t="n">
-        <v>82.99189983657543</v>
+        <v>229.8818473344858</v>
       </c>
       <c r="F37" t="n">
         <v>82.99189983657543</v>
@@ -7120,25 +7120,25 @@
         <v>1943.774331492885</v>
       </c>
       <c r="S37" t="n">
-        <v>1937.329818183947</v>
+        <v>1756.655791914834</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.563202753473</v>
+        <v>1534.88917648436</v>
       </c>
       <c r="U37" t="n">
-        <v>1426.460335879117</v>
+        <v>1245.786309610003</v>
       </c>
       <c r="V37" t="n">
-        <v>1171.77584767323</v>
+        <v>1245.786309610003</v>
       </c>
       <c r="W37" t="n">
-        <v>882.3586776362695</v>
+        <v>956.3691395730428</v>
       </c>
       <c r="X37" t="n">
-        <v>654.3691267382521</v>
+        <v>728.3795886750255</v>
       </c>
       <c r="Y37" t="n">
-        <v>433.576547594722</v>
+        <v>728.3795886750255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2062.028042187909</v>
+        <v>2361.647222078357</v>
       </c>
       <c r="C38" t="n">
-        <v>1693.065525247498</v>
+        <v>1992.684705137945</v>
       </c>
       <c r="D38" t="n">
-        <v>1334.799826640747</v>
+        <v>1634.419006531195</v>
       </c>
       <c r="E38" t="n">
-        <v>949.0115740425028</v>
+        <v>1248.63075393295</v>
       </c>
       <c r="F38" t="n">
-        <v>538.0256692528953</v>
+        <v>837.644849143343</v>
       </c>
       <c r="G38" t="n">
-        <v>122.9532190978918</v>
+        <v>422.5723989883395</v>
       </c>
       <c r="H38" t="n">
-        <v>82.99189983657543</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I38" t="n">
         <v>82.99189983657543</v>
@@ -7208,16 +7208,16 @@
         <v>3896.064515102608</v>
       </c>
       <c r="V38" t="n">
-        <v>3565.001627759037</v>
+        <v>3864.620807649485</v>
       </c>
       <c r="W38" t="n">
-        <v>3212.232972488923</v>
+        <v>3511.852152379371</v>
       </c>
       <c r="X38" t="n">
-        <v>2838.767214227843</v>
+        <v>3138.386394118291</v>
       </c>
       <c r="Y38" t="n">
-        <v>2448.627882252031</v>
+        <v>2748.247062142479</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>958.0236378855002</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C39" t="n">
-        <v>783.5706086043732</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D39" t="n">
-        <v>634.6361989431221</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E39" t="n">
-        <v>475.3987439376665</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8641859645516</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G39" t="n">
         <v>192.5010857971699</v>
@@ -7251,13 +7251,13 @@
         <v>82.99189983657543</v>
       </c>
       <c r="J39" t="n">
-        <v>176.669169327193</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>414.9333683075401</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>781.6315286202056</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M39" t="n">
         <v>1228.907853842521</v>
@@ -7266,7 +7266,7 @@
         <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.392176815031</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P39" t="n">
         <v>2423.891768291133</v>
@@ -7296,7 +7296,7 @@
         <v>1333.999273670522</v>
       </c>
       <c r="Y39" t="n">
-        <v>1126.238974905568</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2288.812560172462</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="C40" t="n">
-        <v>2288.812560172462</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="D40" t="n">
-        <v>2288.812560172462</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E40" t="n">
-        <v>2288.812560172462</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F40" t="n">
-        <v>2288.812560172462</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G40" t="n">
-        <v>2288.812560172462</v>
+        <v>326.5347638003723</v>
       </c>
       <c r="H40" t="n">
-        <v>2288.812560172462</v>
+        <v>180.3175770182301</v>
       </c>
       <c r="I40" t="n">
-        <v>2288.812560172462</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J40" t="n">
-        <v>2333.935192619398</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K40" t="n">
-        <v>2537.922375568274</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L40" t="n">
-        <v>2854.48217401677</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M40" t="n">
-        <v>3198.639219616319</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N40" t="n">
-        <v>3540.047596322184</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O40" t="n">
-        <v>3839.377195242597</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P40" t="n">
-        <v>4071.984695676257</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q40" t="n">
-        <v>4149.594991828772</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>4059.764534586299</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S40" t="n">
-        <v>3868.078650413126</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T40" t="n">
-        <v>3646.312034982652</v>
+        <v>1440.491374646765</v>
       </c>
       <c r="U40" t="n">
-        <v>3357.209168108295</v>
+        <v>1151.388507772409</v>
       </c>
       <c r="V40" t="n">
-        <v>3102.524679902408</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="W40" t="n">
-        <v>2813.107509865448</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="X40" t="n">
-        <v>2585.11795896743</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="Y40" t="n">
-        <v>2364.3253798239</v>
+        <v>896.7040195665217</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2076.822513442797</v>
+        <v>2315.558518914073</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.859996502385</v>
+        <v>1946.596001973661</v>
       </c>
       <c r="D41" t="n">
-        <v>1349.594297895635</v>
+        <v>1588.330303366911</v>
       </c>
       <c r="E41" t="n">
-        <v>963.8060452973907</v>
+        <v>1202.542050768667</v>
       </c>
       <c r="F41" t="n">
-        <v>552.8201405077832</v>
+        <v>791.556145979059</v>
       </c>
       <c r="G41" t="n">
-        <v>137.7476903527797</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
         <v>82.99189983657543</v>
@@ -7412,16 +7412,16 @@
         <v>271.8710307956009</v>
       </c>
       <c r="K41" t="n">
-        <v>622.723009445592</v>
+        <v>605.6904044854473</v>
       </c>
       <c r="L41" t="n">
-        <v>1487.241825098947</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M41" t="n">
-        <v>2020.773729770871</v>
+        <v>2035.274920563685</v>
       </c>
       <c r="N41" t="n">
-        <v>2567.552546829654</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O41" t="n">
         <v>3447.517197159108</v>
@@ -7436,25 +7436,25 @@
         <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4039.304323355866</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="T41" t="n">
-        <v>3833.326575740089</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U41" t="n">
-        <v>3579.796099013925</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="V41" t="n">
-        <v>3579.796099013925</v>
+        <v>3818.532104485201</v>
       </c>
       <c r="W41" t="n">
-        <v>3227.027443743811</v>
+        <v>3465.763449215086</v>
       </c>
       <c r="X41" t="n">
-        <v>2853.561685482731</v>
+        <v>3092.297690954007</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.422353506919</v>
+        <v>2702.158358978195</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>379.2972986315438</v>
+        <v>1108.093463846199</v>
       </c>
       <c r="C43" t="n">
-        <v>379.2972986315438</v>
+        <v>939.1572809182926</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2972986315438</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E43" t="n">
-        <v>379.2972986315438</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F43" t="n">
-        <v>379.2972986315438</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G43" t="n">
         <v>326.5347638003723</v>
@@ -7591,28 +7591,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1853.943874250413</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S43" t="n">
-        <v>1662.257990077239</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.491374646765</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.388507772409</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="V43" t="n">
-        <v>896.7040195665217</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="W43" t="n">
-        <v>607.2868495295611</v>
+        <v>1738.524058717986</v>
       </c>
       <c r="X43" t="n">
-        <v>379.2972986315438</v>
+        <v>1510.534507819969</v>
       </c>
       <c r="Y43" t="n">
-        <v>379.2972986315438</v>
+        <v>1289.741928676439</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>53.94298182036446</v>
+        <v>242.8221127793899</v>
       </c>
       <c r="K44" t="n">
-        <v>387.762355510211</v>
+        <v>576.6414864692364</v>
       </c>
       <c r="L44" t="n">
-        <v>838.7965687586197</v>
+        <v>1027.675699717645</v>
       </c>
       <c r="M44" t="n">
-        <v>1372.328473430544</v>
+        <v>1561.20760438957</v>
       </c>
       <c r="N44" t="n">
-        <v>1919.107290489327</v>
+        <v>2107.986421448352</v>
       </c>
       <c r="O44" t="n">
-        <v>2422.079761368664</v>
+        <v>2610.958892327689</v>
       </c>
       <c r="P44" t="n">
-        <v>2697.149091018223</v>
+        <v>2638.132024461419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2638.132024461419</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.927876465082</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>928.9747198692897</v>
+        <v>928.9747198692896</v>
       </c>
       <c r="C45" t="n">
-        <v>754.5216905881628</v>
+        <v>754.5216905881626</v>
       </c>
       <c r="D45" t="n">
-        <v>605.5872809269115</v>
+        <v>605.5872809269114</v>
       </c>
       <c r="E45" t="n">
         <v>446.3498259214559</v>
@@ -7722,7 +7722,7 @@
         <v>72.9502734188265</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
         <v>147.6202513109818</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.877648567926</v>
+        <v>835.5016818661916</v>
       </c>
       <c r="C46" t="n">
-        <v>825.9414656400191</v>
+        <v>666.5654989382847</v>
       </c>
       <c r="D46" t="n">
-        <v>675.8248262276834</v>
+        <v>516.4488595259489</v>
       </c>
       <c r="E46" t="n">
-        <v>527.9117326452903</v>
+        <v>368.5357659435558</v>
       </c>
       <c r="F46" t="n">
-        <v>381.0217851473799</v>
+        <v>221.6458184456455</v>
       </c>
       <c r="G46" t="n">
-        <v>213.3189485220989</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H46" t="n">
-        <v>67.10176173995663</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
-        <v>99.06561426730002</v>
+        <v>99.06561426729999</v>
       </c>
       <c r="K46" t="n">
         <v>303.0527972161764</v>
@@ -7828,28 +7828,28 @@
         <v>1914.725413476674</v>
       </c>
       <c r="R46" t="n">
-        <v>1914.725413476674</v>
+        <v>1824.894956234202</v>
       </c>
       <c r="S46" t="n">
-        <v>1914.725413476674</v>
+        <v>1824.894956234202</v>
       </c>
       <c r="T46" t="n">
-        <v>1914.725413476674</v>
+        <v>1603.128340803728</v>
       </c>
       <c r="U46" t="n">
-        <v>1914.725413476674</v>
+        <v>1603.128340803728</v>
       </c>
       <c r="V46" t="n">
-        <v>1914.725413476674</v>
+        <v>1603.128340803728</v>
       </c>
       <c r="W46" t="n">
-        <v>1625.308243439713</v>
+        <v>1465.932276737979</v>
       </c>
       <c r="X46" t="n">
-        <v>1397.318692541696</v>
+        <v>1237.942725839961</v>
       </c>
       <c r="Y46" t="n">
-        <v>1176.526113398166</v>
+        <v>1017.150146696431</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>160.4088454694717</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>272.6222837666356</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L9" t="n">
-        <v>339.1843734049999</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>288.0478149561022</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>79.70465870845248</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>378.3191228761053</v>
       </c>
       <c r="N35" t="n">
-        <v>366.1525137952572</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>17.20465147489358</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>366.1525137952572</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>48.34908917677382</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3973822493057</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>130.5482485912761</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>111.2344680580377</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>6.713960260761198</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>312.3423365497571</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>69.12041821276375</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>112.9139935295361</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,16 +24175,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>137.0244658653733</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.3497438692353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.9056558750125</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24652,7 +24652,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.4197768217119</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>94.35543628911108</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,13 +24886,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>69.34270184147178</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21.59472895491403</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.050886359715207</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25202,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>239.9976193408703</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25360,7 +25360,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>183.3889571555937</v>
+        <v>4.521671149171169</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>255.0460583186172</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>296.6229880915432</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.050886359715207</v>
       </c>
       <c r="H41" t="n">
-        <v>240.3995317762783</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>86.92986613055774</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25919,13 +25919,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>222.066169551294</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>150.6988949114993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1035587.355872948</v>
+        <v>1013196.450060425</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1013196.450060425</v>
+        <v>973517.280268177</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806222.7343017625</v>
+        <v>806222.7343017624</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806222.7343017625</v>
+        <v>806222.7343017624</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893979.227193927</v>
+        <v>893979.2271939269</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893979.227193927</v>
+        <v>893979.2271939272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893979.227193927</v>
+        <v>893979.2271939272</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749194.8071183539</v>
+        <v>749194.8071183537</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165591</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26338,22 +26338,22 @@
         <v>456644.0549200309</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="L2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
         <v>428736.7714047458</v>
       </c>
       <c r="N2" t="n">
-        <v>428736.7714047456</v>
+        <v>428736.7714047459</v>
       </c>
       <c r="O2" t="n">
         <v>428736.7714047458</v>
       </c>
       <c r="P2" t="n">
-        <v>364239.3803012738</v>
+        <v>364239.3803012737</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734512</v>
+        <v>149914.8602001174</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.74401294834</v>
+        <v>97970.74401294843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404877</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278143</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26509,7 +26509,7 @@
         <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.79825641088</v>
+        <v>64753.79825641087</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408554.4938464786</v>
+        <v>-410650.3550690244</v>
       </c>
       <c r="C6" t="n">
-        <v>181413.3853680656</v>
+        <v>11823.60880320147</v>
       </c>
       <c r="D6" t="n">
-        <v>24947.34301182179</v>
+        <v>-60342.81027985332</v>
       </c>
       <c r="E6" t="n">
-        <v>-133156.3834264218</v>
+        <v>162424.667708043</v>
       </c>
       <c r="F6" t="n">
-        <v>312483.8461470291</v>
+        <v>312339.5279081604</v>
       </c>
       <c r="G6" t="n">
-        <v>312483.8461470293</v>
+        <v>312339.5279081603</v>
       </c>
       <c r="H6" t="n">
-        <v>234549.2505511722</v>
+        <v>233727.9533004731</v>
       </c>
       <c r="I6" t="n">
-        <v>332519.9945641207</v>
+        <v>331698.6973134215</v>
       </c>
       <c r="J6" t="n">
-        <v>156096.7753715276</v>
+        <v>155275.4781208286</v>
       </c>
       <c r="K6" t="n">
-        <v>332519.9945641204</v>
+        <v>331698.6973134215</v>
       </c>
       <c r="L6" t="n">
-        <v>332519.9945641205</v>
+        <v>331698.6973134215</v>
       </c>
       <c r="M6" t="n">
-        <v>323850.5822845904</v>
+        <v>323322.2061101366</v>
       </c>
       <c r="N6" t="n">
-        <v>323850.5822845902</v>
+        <v>323322.2061101368</v>
       </c>
       <c r="O6" t="n">
-        <v>323850.5822845904</v>
+        <v>323322.2061101366</v>
       </c>
       <c r="P6" t="n">
-        <v>294203.3847134537</v>
+        <v>294059.0664745846</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026372</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026372</v>
+        <v>363.1114752026375</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>137.0799120443112</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>44.65327491702013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>112.4807992770879</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>238.4480747238783</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>6.098177473245329</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>194.4923029121678</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>381.9416120607146</v>
       </c>
       <c r="C8" t="n">
-        <v>170.0882443305154</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>93.02987719664843</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.087813378473484</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34384,13 +34384,13 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>509.0808034820971</v>
+        <v>258.6806039711582</v>
       </c>
       <c r="Q44" t="n">
         <v>222.3056898744495</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>272.2616992568722</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>411.2380393380436</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L9" t="n">
-        <v>477.8001289764079</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>840.3496503690137</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36841,13 +36841,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>587.7576595966716</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37312,10 +37312,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>917.2402387063321</v>
       </c>
       <c r="N35" t="n">
-        <v>918.4543492081687</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37780,19 +37780,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>354.3959380302941</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>918.4543492081687</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>277.8478077268275</v>
+        <v>27.44760821588861</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
